--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251029_201937.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251029_201937.xlsx
@@ -4263,7 +4263,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
